--- a/predictions полгода до/Прогнозы_Holt-Winters_MulAd.xlsx
+++ b/predictions полгода до/Прогнозы_Holt-Winters_MulAd.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19985240.64124837</v>
+        <v>20663957.23430658</v>
       </c>
       <c r="C2" t="n">
-        <v>21545286.04262994</v>
+        <v>20207123.43420573</v>
       </c>
       <c r="D2" t="n">
-        <v>21193135.78210873</v>
+        <v>19948092.49893034</v>
       </c>
       <c r="E2" t="n">
-        <v>21041632.66213375</v>
+        <v>21581558.47367734</v>
       </c>
       <c r="F2" t="n">
-        <v>22785534.48397329</v>
+        <v>22445077.97539432</v>
       </c>
       <c r="G2" t="n">
-        <v>23762430.22501464</v>
+        <v>18393358.85188993</v>
       </c>
       <c r="H2" t="n">
-        <v>19909158.27885532</v>
+        <v>21241069.93124804</v>
       </c>
       <c r="I2" t="n">
-        <v>22794355.24908588</v>
+        <v>23166567.97757771</v>
       </c>
       <c r="J2" t="n">
-        <v>24842526.178568</v>
+        <v>22202500.2434276</v>
       </c>
       <c r="K2" t="n">
-        <v>24004345.12951238</v>
+        <v>22017388.13341473</v>
       </c>
       <c r="L2" t="n">
-        <v>23948421.02372514</v>
+        <v>21769916.46708703</v>
       </c>
       <c r="M2" t="n">
-        <v>23833424.81555318</v>
+        <v>22291683.44622317</v>
       </c>
     </row>
     <row r="3">
@@ -532,3234 +532,2116 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-8.075192092071526e+91</v>
+        <v>5.316389104648618e+51</v>
       </c>
       <c r="C3" t="n">
-        <v>-4.161766543144991e+91</v>
+        <v>9.723774891384794e+52</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.065755619763124e+91</v>
+        <v>1.778496574971344e+54</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.016800724893536e+91</v>
+        <v>3.252903427440762e+55</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.917701337116492e+90</v>
+        <v>5.949621077244046e+56</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.287678699315303e+90</v>
+        <v>1.088196798717635e+58</v>
       </c>
       <c r="H3" t="n">
-        <v>-9.679507533817062e+89</v>
+        <v>1.990332253710241e+59</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.033543231104118e+89</v>
+        <v>3.640354837312101e+60</v>
       </c>
       <c r="J3" t="n">
-        <v>3.376326952916381e+88</v>
+        <v>6.658276936847004e+61</v>
       </c>
       <c r="K3" t="n">
-        <v>2.072581186312824e+89</v>
+        <v>1.217811277992952e+63</v>
       </c>
       <c r="L3" t="n">
-        <v>2.990711585828391e+89</v>
+        <v>2.227399555280625e+64</v>
       </c>
       <c r="M3" t="n">
-        <v>3.502281116922671e+89</v>
+        <v>4.073955356236272e+65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.125502643787979e+229</v>
+        <v>4.841762852991491e+255</v>
       </c>
       <c r="C4" t="n">
-        <v>9.918101201597789e+233</v>
+        <v>2.247893376757758e+261</v>
       </c>
       <c r="D4" t="n">
-        <v>8.739982263752561e+238</v>
+        <v>1.04363323580571e+267</v>
       </c>
       <c r="E4" t="n">
-        <v>7.701805861630399e+243</v>
+        <v>4.845293563030371e+272</v>
       </c>
       <c r="F4" t="n">
-        <v>6.786948959410809e+248</v>
+        <v>2.249532585441172e+278</v>
       </c>
       <c r="G4" t="n">
-        <v>5.980763084035518e+253</v>
+        <v>1.04439427397599e+284</v>
       </c>
       <c r="H4" t="n">
-        <v>5.270339777310964e+258</v>
+        <v>4.848826847733431e+289</v>
       </c>
       <c r="I4" t="n">
-        <v>4.644303908718619e+263</v>
+        <v>2.25117298946825e+295</v>
       </c>
       <c r="J4" t="n">
-        <v>4.092631539506602e+268</v>
+        <v>1.045155867110482e+301</v>
       </c>
       <c r="K4" t="n">
-        <v>3.606489421745327e+273</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.178093562443935e+278</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2.800584588089446e+283</v>
+        <v>4.852362708978166e+306</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1005594.886835555</v>
+        <v>22880841.72774852</v>
       </c>
       <c r="C5" t="n">
-        <v>431809.8574496459</v>
+        <v>24768369.44227008</v>
       </c>
       <c r="D5" t="n">
-        <v>187298.5273200858</v>
+        <v>25659687.55612848</v>
       </c>
       <c r="E5" t="n">
-        <v>82019.99324674183</v>
+        <v>28461698.5586142</v>
       </c>
       <c r="F5" t="n">
-        <v>26303.56084081559</v>
+        <v>40894943.21187742</v>
       </c>
       <c r="G5" t="n">
-        <v>-35093.95624255855</v>
+        <v>21798105.93494424</v>
       </c>
       <c r="H5" t="n">
-        <v>11257.14297931332</v>
+        <v>33338655.7930019</v>
       </c>
       <c r="I5" t="n">
-        <v>8284.871241053776</v>
+        <v>34935608.25600662</v>
       </c>
       <c r="J5" t="n">
-        <v>6823.326100297225</v>
+        <v>35846927.04490321</v>
       </c>
       <c r="K5" t="n">
-        <v>6598.049537332623</v>
+        <v>36970530.96137632</v>
       </c>
       <c r="L5" t="n">
-        <v>9519.652891740607</v>
+        <v>40006403.2167884</v>
       </c>
       <c r="M5" t="n">
-        <v>5836.903081081488</v>
+        <v>40601333.61742354</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9035862.170786057</v>
+        <v>1882181.154826662</v>
       </c>
       <c r="C6" t="n">
-        <v>9351804.601723848</v>
+        <v>3365032.553494475</v>
       </c>
       <c r="D6" t="n">
-        <v>9990018.259556439</v>
+        <v>1154497.74275254</v>
       </c>
       <c r="E6" t="n">
-        <v>11392254.12396461</v>
+        <v>3922715.677533023</v>
       </c>
       <c r="F6" t="n">
-        <v>12039166.63415194</v>
+        <v>1953255.624965337</v>
       </c>
       <c r="G6" t="n">
-        <v>19710242.05795629</v>
+        <v>1724024.243683899</v>
       </c>
       <c r="H6" t="n">
-        <v>9791105.40636424</v>
+        <v>4621080.61669047</v>
       </c>
       <c r="I6" t="n">
-        <v>14988455.32972167</v>
+        <v>5430729.502189292</v>
       </c>
       <c r="J6" t="n">
-        <v>13852446.63957681</v>
+        <v>3838802.062726735</v>
       </c>
       <c r="K6" t="n">
-        <v>14359539.3710022</v>
+        <v>4715230.256630218</v>
       </c>
       <c r="L6" t="n">
-        <v>15392505.39201765</v>
+        <v>2787771.380059062</v>
       </c>
       <c r="M6" t="n">
-        <v>16217051.79496977</v>
+        <v>4325153.209325353</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2151813.963262815</v>
+        <v>-3.343162444492998e+189</v>
       </c>
       <c r="C7" t="n">
-        <v>2501589.885149804</v>
+        <v>2.162952944782224e+193</v>
       </c>
       <c r="D7" t="n">
-        <v>3134466.360474489</v>
+        <v>-1.399383224422283e+197</v>
       </c>
       <c r="E7" t="n">
-        <v>2736493.206367604</v>
+        <v>9.053703241758109e+200</v>
       </c>
       <c r="F7" t="n">
-        <v>3172899.816677656</v>
+        <v>-5.857547879613985e+204</v>
       </c>
       <c r="G7" t="n">
-        <v>5070955.653297246</v>
+        <v>3.789705300226693e+208</v>
       </c>
       <c r="H7" t="n">
-        <v>2185523.546138651</v>
+        <v>-2.451856400960864e+212</v>
       </c>
       <c r="I7" t="n">
-        <v>3312036.328510054</v>
+        <v>1.586297438635442e+216</v>
       </c>
       <c r="J7" t="n">
-        <v>3694475.704244734</v>
+        <v>-1.026299730618494e+220</v>
       </c>
       <c r="K7" t="n">
-        <v>4189909.750308944</v>
+        <v>6.639934676901768e+223</v>
       </c>
       <c r="L7" t="n">
-        <v>3337642.51349701</v>
+        <v>-4.295892437480498e+227</v>
       </c>
       <c r="M7" t="n">
-        <v>4171558.729269152</v>
+        <v>2.779348402116089e+231</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1830028.999574095</v>
+        <v>16623591.74671223</v>
       </c>
       <c r="C8" t="n">
-        <v>1701468.729093653</v>
+        <v>19489802.44232654</v>
       </c>
       <c r="D8" t="n">
-        <v>1626719.221694638</v>
+        <v>19614613.20595224</v>
       </c>
       <c r="E8" t="n">
-        <v>1921696.223979831</v>
+        <v>21480791.11904249</v>
       </c>
       <c r="F8" t="n">
-        <v>2541220.618408057</v>
+        <v>27321733.62905323</v>
       </c>
       <c r="G8" t="n">
-        <v>1965033.682996779</v>
+        <v>15938574.45819155</v>
       </c>
       <c r="H8" t="n">
-        <v>1251545.41075416</v>
+        <v>21678058.60059223</v>
       </c>
       <c r="I8" t="n">
-        <v>1720729.971087383</v>
+        <v>25371999.24425257</v>
       </c>
       <c r="J8" t="n">
-        <v>1746923.495809842</v>
+        <v>23671038.80889123</v>
       </c>
       <c r="K8" t="n">
-        <v>1860024.511422619</v>
+        <v>21849349.39137622</v>
       </c>
       <c r="L8" t="n">
-        <v>1644731.511581399</v>
+        <v>23388411.9426792</v>
       </c>
       <c r="M8" t="n">
-        <v>2042270.876400279</v>
+        <v>23525587.29821587</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4189335.076688206</v>
+        <v>28947651.19209462</v>
       </c>
       <c r="C9" t="n">
-        <v>18057833.58316127</v>
+        <v>28384754.64743653</v>
       </c>
       <c r="D9" t="n">
-        <v>-76046904.48549032</v>
+        <v>29206838.50381211</v>
       </c>
       <c r="E9" t="n">
-        <v>318732302.8419976</v>
+        <v>30289523.35015464</v>
       </c>
       <c r="F9" t="n">
-        <v>-1334948137.958402</v>
+        <v>39590708.82380327</v>
       </c>
       <c r="G9" t="n">
-        <v>5589533245.935834</v>
+        <v>30376597.05976097</v>
       </c>
       <c r="H9" t="n">
-        <v>-23403363173.95551</v>
+        <v>35434766.04862528</v>
       </c>
       <c r="I9" t="n">
-        <v>97989823653.26361</v>
+        <v>36941708.75455911</v>
       </c>
       <c r="J9" t="n">
-        <v>-410279587146.1685</v>
+        <v>39412577.46798585</v>
       </c>
       <c r="K9" t="n">
-        <v>1717832310477.738</v>
+        <v>39135795.70632055</v>
       </c>
       <c r="L9" t="n">
-        <v>-7192498512829.26</v>
+        <v>42231677.29510038</v>
       </c>
       <c r="M9" t="n">
-        <v>30114747277057.59</v>
+        <v>40137192.71922085</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4516511.155057414</v>
+        <v>27907101.45291074</v>
       </c>
       <c r="C10" t="n">
-        <v>5451216.074868126</v>
+        <v>40525448.79141545</v>
       </c>
       <c r="D10" t="n">
-        <v>5835458.360128342</v>
+        <v>59542088.27810346</v>
       </c>
       <c r="E10" t="n">
-        <v>5004516.817653471</v>
+        <v>86403594.99290632</v>
       </c>
       <c r="F10" t="n">
-        <v>5694416.981403235</v>
+        <v>127408389.3044885</v>
       </c>
       <c r="G10" t="n">
-        <v>8564716.330515373</v>
+        <v>182708196.2977656</v>
       </c>
       <c r="H10" t="n">
-        <v>4287147.684978793</v>
+        <v>268285564.0219289</v>
       </c>
       <c r="I10" t="n">
-        <v>6159050.44173976</v>
+        <v>397029327.851703</v>
       </c>
       <c r="J10" t="n">
-        <v>7824850.548243683</v>
+        <v>585762014.0982274</v>
       </c>
       <c r="K10" t="n">
-        <v>6863436.177917577</v>
+        <v>860116327.4917673</v>
       </c>
       <c r="L10" t="n">
-        <v>7135582.211774464</v>
+        <v>1256985141.612943</v>
       </c>
       <c r="M10" t="n">
-        <v>7147496.415435508</v>
+        <v>1844982326.095006</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.010402875849301e+38</v>
+        <v>324789054.8832564</v>
       </c>
       <c r="C11" t="n">
-        <v>6.839307845851588e+38</v>
+        <v>6128052669.271646</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.629453550496541e+39</v>
+        <v>115536098515.5949</v>
       </c>
       <c r="E11" t="n">
-        <v>3.133627065669198e+40</v>
+        <v>2178419108933.643</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.121118287414519e+41</v>
+        <v>41074319224547.12</v>
       </c>
       <c r="G11" t="n">
-        <v>1.435762040255229e+42</v>
+        <v>774461094238641</v>
       </c>
       <c r="H11" t="n">
-        <v>-9.718518049978893e+42</v>
+        <v>1.460255454391304e+16</v>
       </c>
       <c r="I11" t="n">
-        <v>6.57835981448393e+43</v>
+        <v>2.753328741013054e+17</v>
       </c>
       <c r="J11" t="n">
-        <v>-4.452820648813915e+44</v>
+        <v>5.191433548976686e+18</v>
       </c>
       <c r="K11" t="n">
-        <v>3.014066163855609e+45</v>
+        <v>9.788508684762122e+19</v>
       </c>
       <c r="L11" t="n">
-        <v>-2.04018880538543e+46</v>
+        <v>1.845634762878591e+21</v>
       </c>
       <c r="M11" t="n">
-        <v>1.380981748687147e+47</v>
+        <v>3.479965935207908e+22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6862021.031031186</v>
+        <v>41363140.59238037</v>
       </c>
       <c r="C12" t="n">
-        <v>64561484.82331257</v>
+        <v>45714715.08166005</v>
       </c>
       <c r="D12" t="n">
-        <v>613402078.7005998</v>
+        <v>48466075.88032909</v>
       </c>
       <c r="E12" t="n">
-        <v>5793338982.750377</v>
+        <v>47594950.9838972</v>
       </c>
       <c r="F12" t="n">
-        <v>54700114493.84274</v>
+        <v>42023465.72874594</v>
       </c>
       <c r="G12" t="n">
-        <v>516437623366.1552</v>
+        <v>40960263.03323879</v>
       </c>
       <c r="H12" t="n">
-        <v>4875797728109.165</v>
+        <v>47230984.88280616</v>
       </c>
       <c r="I12" t="n">
-        <v>46033444753990.32</v>
+        <v>44114759.1801372</v>
       </c>
       <c r="J12" t="n">
-        <v>434611499440348.8</v>
+        <v>44163169.77033342</v>
       </c>
       <c r="K12" t="n">
-        <v>4103259225287226</v>
+        <v>41214115.62124094</v>
       </c>
       <c r="L12" t="n">
-        <v>3.873973960236086e+16</v>
+        <v>47609023.75894886</v>
       </c>
       <c r="M12" t="n">
-        <v>3.657500884468105e+17</v>
+        <v>54398687.20368001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.394692086785535e+24</v>
+        <v>46381469.46980257</v>
       </c>
       <c r="C13" t="n">
-        <v>1.215834461345613e+25</v>
+        <v>46820308.94267401</v>
       </c>
       <c r="D13" t="n">
-        <v>-6.173041807918944e+25</v>
+        <v>50139040.99817665</v>
       </c>
       <c r="E13" t="n">
-        <v>3.134180381226994e+26</v>
+        <v>44287368.66271127</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.591287888025085e+27</v>
+        <v>42180017.62721436</v>
       </c>
       <c r="G13" t="n">
-        <v>8.079296129962504e+27</v>
+        <v>40081949.41802527</v>
       </c>
       <c r="H13" t="n">
-        <v>-4.102024934986332e+28</v>
+        <v>44476455.96853757</v>
       </c>
       <c r="I13" t="n">
-        <v>2.082682488226177e+29</v>
+        <v>41428182.20480536</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.057420765472458e+30</v>
+        <v>44085219.57357754</v>
       </c>
       <c r="K13" t="n">
-        <v>5.3687428668094e+30</v>
+        <v>38892530.21580474</v>
       </c>
       <c r="L13" t="n">
-        <v>-2.725821254039699e+31</v>
+        <v>45169467.87857087</v>
       </c>
       <c r="M13" t="n">
-        <v>1.383955554084901e+32</v>
+        <v>51509160.92424119</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.577845853207172e+243</v>
+        <v>8010448.266506172</v>
       </c>
       <c r="C14" t="n">
-        <v>4.073814365007095e+248</v>
+        <v>32574464.53413357</v>
       </c>
       <c r="D14" t="n">
-        <v>1.051811458439033e+254</v>
+        <v>132464921.8393856</v>
       </c>
       <c r="E14" t="n">
-        <v>2.715654777023007e+259</v>
+        <v>538672755.6504246</v>
       </c>
       <c r="F14" t="n">
-        <v>7.011504589342087e+264</v>
+        <v>2190529777.34765</v>
       </c>
       <c r="G14" t="n">
-        <v>1.810288885844957e+270</v>
+        <v>8907858421.010387</v>
       </c>
       <c r="H14" t="n">
-        <v>4.673955223812072e+275</v>
+        <v>36224263871.32485</v>
       </c>
       <c r="I14" t="n">
-        <v>1.206760843808835e+281</v>
+        <v>147306671541.6861</v>
       </c>
       <c r="J14" t="n">
-        <v>3.115716057207919e+286</v>
+        <v>599026316113.8789</v>
       </c>
       <c r="K14" t="n">
-        <v>8.044416256085513e+291</v>
+        <v>2435958474706.146</v>
       </c>
       <c r="L14" t="n">
-        <v>2.07697465728516e+297</v>
+        <v>9905901622467.455</v>
       </c>
       <c r="M14" t="n">
-        <v>5.362506849072419e+302</v>
+        <v>40282659218390.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.115492310593937e+19</v>
+        <v>-8.762340993086431e+264</v>
       </c>
       <c r="C15" t="n">
-        <v>4.370244538206849e+19</v>
+        <v>2.455655431249965e+270</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.712162154179859e+20</v>
+        <v>-6.882000599823006e+275</v>
       </c>
       <c r="E15" t="n">
-        <v>6.707860864852224e+20</v>
+        <v>1.928688025740496e+281</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.62798691026617e+21</v>
+        <v>-5.405168812002778e+286</v>
       </c>
       <c r="G15" t="n">
-        <v>1.029585337700302e+22</v>
+        <v>1.514804338303e+292</v>
       </c>
       <c r="H15" t="n">
-        <v>-4.033680544406487e+22</v>
+        <v>-4.245255353072608e+297</v>
       </c>
       <c r="I15" t="n">
-        <v>1.580304044217387e+23</v>
-      </c>
-      <c r="J15" t="n">
-        <v>-6.191270836575402e+23</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.42559871372527e+24</v>
-      </c>
-      <c r="L15" t="n">
-        <v>-9.502942570511327e+24</v>
-      </c>
-      <c r="M15" t="n">
-        <v>3.723036171953744e+25</v>
+        <v>1.189737351358623e+303</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-412689.0133232835</v>
+        <v>10560108.81785805</v>
       </c>
       <c r="C16" t="n">
-        <v>631917.86686798</v>
+        <v>14316525.16755723</v>
       </c>
       <c r="D16" t="n">
-        <v>-970010.6193131885</v>
+        <v>14114553.12876637</v>
       </c>
       <c r="E16" t="n">
-        <v>1290692.419533337</v>
+        <v>16318485.30437066</v>
       </c>
       <c r="F16" t="n">
-        <v>-2006725.672226418</v>
+        <v>16536620.88029006</v>
       </c>
       <c r="G16" t="n">
-        <v>2873283.996607284</v>
+        <v>16809402.76988686</v>
       </c>
       <c r="H16" t="n">
-        <v>-3882576.9984629</v>
+        <v>16365704.63963768</v>
       </c>
       <c r="I16" t="n">
-        <v>5571503.309019466</v>
+        <v>17241767.38414517</v>
       </c>
       <c r="J16" t="n">
-        <v>-7953904.418704061</v>
+        <v>19048693.16343639</v>
       </c>
       <c r="K16" t="n">
-        <v>11380644.7522321</v>
+        <v>19330172.53242753</v>
       </c>
       <c r="L16" t="n">
-        <v>-16271190.15553721</v>
+        <v>19966037.31906986</v>
       </c>
       <c r="M16" t="n">
-        <v>23253064.59210324</v>
+        <v>20787430.18839403</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-7.104575031365512e+37</v>
+        <v>4.97870789904669e+46</v>
       </c>
       <c r="C17" t="n">
-        <v>1.152180097877604e+39</v>
+        <v>6.655813635349127e+49</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.868541004078446e+40</v>
+        <v>8.897861864316489e+52</v>
       </c>
       <c r="E17" t="n">
-        <v>3.030294907090881e+41</v>
+        <v>1.189515663959915e+56</v>
       </c>
       <c r="F17" t="n">
-        <v>-4.914362169700226e+42</v>
+        <v>1.59021070048348e+59</v>
       </c>
       <c r="G17" t="n">
-        <v>7.969836690725088e+43</v>
+        <v>2.125882111979802e+62</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.292503374454168e+45</v>
+        <v>2.841997448930292e+65</v>
       </c>
       <c r="I17" t="n">
-        <v>2.096109415786828e+46</v>
+        <v>3.799340261725214e+68</v>
       </c>
       <c r="J17" t="n">
-        <v>-3.399352581808538e+47</v>
+        <v>5.079169381309416e+71</v>
       </c>
       <c r="K17" t="n">
-        <v>5.512879188660236e+48</v>
+        <v>6.790116132508932e+74</v>
       </c>
       <c r="L17" t="n">
-        <v>-8.940477993192491e+49</v>
+        <v>9.077404912429196e+77</v>
       </c>
       <c r="M17" t="n">
-        <v>1.449916532021511e+51</v>
+        <v>1.213517977250669e+81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>797452.6573627305</v>
+        <v>3256831.227979593</v>
       </c>
       <c r="C18" t="n">
-        <v>489101.1028283711</v>
+        <v>3820711.355940075</v>
       </c>
       <c r="D18" t="n">
-        <v>1058119.830289384</v>
+        <v>3409016.515708989</v>
       </c>
       <c r="E18" t="n">
-        <v>750785.4250019251</v>
+        <v>3452148.406321652</v>
       </c>
       <c r="F18" t="n">
-        <v>1092126.893037768</v>
+        <v>4133807.07480236</v>
       </c>
       <c r="G18" t="n">
-        <v>3508626.090245303</v>
+        <v>3755512.106655744</v>
       </c>
       <c r="H18" t="n">
-        <v>583118.602961803</v>
+        <v>5184414.830703744</v>
       </c>
       <c r="I18" t="n">
-        <v>1077797.941122642</v>
+        <v>4810113.788864927</v>
       </c>
       <c r="J18" t="n">
-        <v>1304245.863311381</v>
+        <v>4411624.010102523</v>
       </c>
       <c r="K18" t="n">
-        <v>973439.0879526823</v>
+        <v>5586070.57332412</v>
       </c>
       <c r="L18" t="n">
-        <v>665362.8429768067</v>
+        <v>5955609.966415428</v>
       </c>
       <c r="M18" t="n">
-        <v>997646.0220285221</v>
+        <v>4821156.209641666</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11632.27396249005</v>
+        <v>6844613.952626003</v>
       </c>
       <c r="C19" t="n">
-        <v>-64021.90311380362</v>
+        <v>4593290.814604116</v>
       </c>
       <c r="D19" t="n">
-        <v>268346.3373534782</v>
+        <v>6432260.176160049</v>
       </c>
       <c r="E19" t="n">
-        <v>-28345.86395291812</v>
+        <v>4989526.180967791</v>
       </c>
       <c r="F19" t="n">
-        <v>-80380.22393521937</v>
+        <v>6182088.295929225</v>
       </c>
       <c r="G19" t="n">
-        <v>67509.67625924516</v>
+        <v>3196453.759214849</v>
       </c>
       <c r="H19" t="n">
-        <v>-54272.39346802347</v>
+        <v>4400747.257566708</v>
       </c>
       <c r="I19" t="n">
-        <v>-5171.311886171217</v>
+        <v>5889607.757426726</v>
       </c>
       <c r="J19" t="n">
-        <v>202522.025716828</v>
+        <v>3831187.088212722</v>
       </c>
       <c r="K19" t="n">
-        <v>-33079.4968367917</v>
+        <v>3298171.971669311</v>
       </c>
       <c r="L19" t="n">
-        <v>70458.37600699064</v>
+        <v>4778701.788111649</v>
       </c>
       <c r="M19" t="n">
-        <v>-80197.22523909679</v>
+        <v>6221195.509374502</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1811762.751508033</v>
+        <v>1860062.905669032</v>
       </c>
       <c r="C20" t="n">
-        <v>1953502.167562352</v>
+        <v>2604074.651288888</v>
       </c>
       <c r="D20" t="n">
-        <v>1940275.805373883</v>
+        <v>3079970.627620016</v>
       </c>
       <c r="E20" t="n">
-        <v>2155997.84629814</v>
+        <v>3197633.896992149</v>
       </c>
       <c r="F20" t="n">
-        <v>2051282.403511486</v>
+        <v>2168922.555869736</v>
       </c>
       <c r="G20" t="n">
-        <v>2526874.864256423</v>
+        <v>2094734.413413103</v>
       </c>
       <c r="H20" t="n">
-        <v>151103.6791854759</v>
+        <v>3085233.515986857</v>
       </c>
       <c r="I20" t="n">
-        <v>1210670.028881285</v>
+        <v>3339289.215035838</v>
       </c>
       <c r="J20" t="n">
-        <v>1846253.643813488</v>
+        <v>2023932.782677728</v>
       </c>
       <c r="K20" t="n">
-        <v>1936374.381468135</v>
+        <v>2261665.213460689</v>
       </c>
       <c r="L20" t="n">
-        <v>1483868.054828871</v>
+        <v>3354924.589778287</v>
       </c>
       <c r="M20" t="n">
-        <v>2083429.847327471</v>
+        <v>2373815.913078315</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2141385.500066919</v>
+        <v>4046784.381378327</v>
       </c>
       <c r="C21" t="n">
-        <v>1805245.306992595</v>
+        <v>4092656.810232357</v>
       </c>
       <c r="D21" t="n">
-        <v>2118349.215944998</v>
+        <v>5368239.468890505</v>
       </c>
       <c r="E21" t="n">
-        <v>3137484.951897863</v>
+        <v>4985539.392491831</v>
       </c>
       <c r="F21" t="n">
-        <v>2813846.687103154</v>
+        <v>5262331.493443673</v>
       </c>
       <c r="G21" t="n">
-        <v>3170220.688089579</v>
+        <v>4497273.037433825</v>
       </c>
       <c r="H21" t="n">
-        <v>3610960.6383653</v>
+        <v>4243695.826417042</v>
       </c>
       <c r="I21" t="n">
-        <v>4418732.265892757</v>
+        <v>4224982.327866034</v>
       </c>
       <c r="J21" t="n">
-        <v>4842038.709398794</v>
+        <v>4446153.704352885</v>
       </c>
       <c r="K21" t="n">
-        <v>5927887.043316191</v>
+        <v>4762420.401803059</v>
       </c>
       <c r="L21" t="n">
-        <v>6178427.186428285</v>
+        <v>5005687.975369508</v>
       </c>
       <c r="M21" t="n">
-        <v>7092270.4339369</v>
+        <v>4230120.661811214</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>39574659.1033059</v>
+        <v>10560316.68590242</v>
       </c>
       <c r="C22" t="n">
-        <v>2230268685.164896</v>
+        <v>12622622.58931965</v>
       </c>
       <c r="D22" t="n">
-        <v>123990052243.7009</v>
+        <v>14249361.19273068</v>
       </c>
       <c r="E22" t="n">
-        <v>6891051007847.027</v>
+        <v>13748424.26525172</v>
       </c>
       <c r="F22" t="n">
-        <v>382984918192201.9</v>
+        <v>14145986.24096182</v>
       </c>
       <c r="G22" t="n">
-        <v>2.128520512274058e+16</v>
+        <v>11348775.84797022</v>
       </c>
       <c r="H22" t="n">
-        <v>1.182970753707993e+18</v>
+        <v>13772249.72214674</v>
       </c>
       <c r="I22" t="n">
-        <v>6.574612723276991e+19</v>
+        <v>12652100.72324725</v>
       </c>
       <c r="J22" t="n">
-        <v>3.653981497480657e+21</v>
+        <v>14310301.01209775</v>
       </c>
       <c r="K22" t="n">
-        <v>2.030778290052065e+23</v>
+        <v>12319133.73979788</v>
       </c>
       <c r="L22" t="n">
-        <v>1.128648425338289e+25</v>
+        <v>13985349.01945041</v>
       </c>
       <c r="M22" t="n">
-        <v>6.272704776580715e+26</v>
+        <v>13762024.7833139</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.085295235456506e+17</v>
+        <v>16807094.33981372</v>
       </c>
       <c r="C23" t="n">
-        <v>5.382030552815178e+17</v>
+        <v>13659875.72080451</v>
       </c>
       <c r="D23" t="n">
-        <v>1.389072022892709e+18</v>
+        <v>10714192.73534853</v>
       </c>
       <c r="E23" t="n">
-        <v>3.585117286510518e+18</v>
+        <v>10718957.27577666</v>
       </c>
       <c r="F23" t="n">
-        <v>9.252987397305088e+18</v>
+        <v>10923293.92140564</v>
       </c>
       <c r="G23" t="n">
-        <v>2.388144341183819e+19</v>
+        <v>7219693.132300142</v>
       </c>
       <c r="H23" t="n">
-        <v>6.163667085316575e+19</v>
+        <v>10489469.40133958</v>
       </c>
       <c r="I23" t="n">
-        <v>1.590808028003477e+20</v>
+        <v>10525389.29365963</v>
       </c>
       <c r="J23" t="n">
-        <v>4.10578661224273e+20</v>
+        <v>10509950.88091435</v>
       </c>
       <c r="K23" t="n">
-        <v>1.059680577404586e+21</v>
+        <v>9141215.709486483</v>
       </c>
       <c r="L23" t="n">
-        <v>2.734976343792724e+21</v>
+        <v>12070082.66800045</v>
       </c>
       <c r="M23" t="n">
-        <v>7.058821092563907e+21</v>
+        <v>12581391.1854209</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>13747764.91873514</v>
+        <v>8698650.041070057</v>
       </c>
       <c r="C24" t="n">
-        <v>11516545.04659513</v>
+        <v>10430200.28344988</v>
       </c>
       <c r="D24" t="n">
-        <v>12919869.71361177</v>
+        <v>10145789.56366446</v>
       </c>
       <c r="E24" t="n">
-        <v>11632602.8775952</v>
+        <v>11004483.32838072</v>
       </c>
       <c r="F24" t="n">
-        <v>12138113.90154254</v>
+        <v>13828613.18575305</v>
       </c>
       <c r="G24" t="n">
-        <v>14760449.99425362</v>
+        <v>8834491.556262964</v>
       </c>
       <c r="H24" t="n">
-        <v>10029085.31640624</v>
+        <v>11556522.68274508</v>
       </c>
       <c r="I24" t="n">
-        <v>12887926.32961966</v>
+        <v>12063734.5917878</v>
       </c>
       <c r="J24" t="n">
-        <v>14635571.56793025</v>
+        <v>12587068.43721061</v>
       </c>
       <c r="K24" t="n">
-        <v>13021463.41553869</v>
+        <v>10990483.4827279</v>
       </c>
       <c r="L24" t="n">
-        <v>12695314.80307684</v>
+        <v>12113511.2065049</v>
       </c>
       <c r="M24" t="n">
-        <v>12404917.85094346</v>
+        <v>13028816.15268969</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2526293.368304816</v>
+        <v>4980162.870236738</v>
       </c>
       <c r="C25" t="n">
-        <v>2612464.825433309</v>
+        <v>6677276.08434953</v>
       </c>
       <c r="D25" t="n">
-        <v>2323399.203532402</v>
+        <v>6649186.086994572</v>
       </c>
       <c r="E25" t="n">
-        <v>3275377.903133377</v>
+        <v>6285324.563645016</v>
       </c>
       <c r="F25" t="n">
-        <v>3136844.223558614</v>
+        <v>7363273.518956358</v>
       </c>
       <c r="G25" t="n">
-        <v>2850286.321764295</v>
+        <v>4863674.041754615</v>
       </c>
       <c r="H25" t="n">
-        <v>1667162.063253476</v>
+        <v>5658218.428254443</v>
       </c>
       <c r="I25" t="n">
-        <v>2525929.094561878</v>
+        <v>7495927.224273298</v>
       </c>
       <c r="J25" t="n">
-        <v>2767643.345344386</v>
+        <v>6448078.665771771</v>
       </c>
       <c r="K25" t="n">
-        <v>2723933.850354995</v>
+        <v>4984228.755315301</v>
       </c>
       <c r="L25" t="n">
-        <v>2338990.946551997</v>
+        <v>5450498.228432288</v>
       </c>
       <c r="M25" t="n">
-        <v>3046504.734630457</v>
+        <v>6763991.208104248</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>12345367.58547539</v>
+        <v>11692208.16095194</v>
       </c>
       <c r="C26" t="n">
-        <v>13151676.9564795</v>
+        <v>12081040.45316336</v>
       </c>
       <c r="D26" t="n">
-        <v>12300107.53126844</v>
+        <v>12407938.74031685</v>
       </c>
       <c r="E26" t="n">
-        <v>12784902.93602037</v>
+        <v>11746723.27400999</v>
       </c>
       <c r="F26" t="n">
-        <v>12799382.56336774</v>
+        <v>14692828.43559372</v>
       </c>
       <c r="G26" t="n">
-        <v>15052034.30360808</v>
+        <v>12411539.8867727</v>
       </c>
       <c r="H26" t="n">
-        <v>13920569.49547587</v>
+        <v>15797801.36492442</v>
       </c>
       <c r="I26" t="n">
-        <v>14734721.33929112</v>
+        <v>16070918.69184152</v>
       </c>
       <c r="J26" t="n">
-        <v>16521978.83379515</v>
+        <v>14560039.5519337</v>
       </c>
       <c r="K26" t="n">
-        <v>19018444.98037025</v>
+        <v>15747468.47129369</v>
       </c>
       <c r="L26" t="n">
-        <v>18804730.56163513</v>
+        <v>16641112.51426909</v>
       </c>
       <c r="M26" t="n">
-        <v>20526394.04478085</v>
+        <v>18208613.92352075</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>15833432.70762876</v>
+        <v>3966216.237330117</v>
       </c>
       <c r="C27" t="n">
-        <v>17640184.78375175</v>
+        <v>3501477.747397906</v>
       </c>
       <c r="D27" t="n">
-        <v>19336816.66393379</v>
+        <v>3588772.55829893</v>
       </c>
       <c r="E27" t="n">
-        <v>20801462.42113229</v>
+        <v>3032482.814637679</v>
       </c>
       <c r="F27" t="n">
-        <v>23294366.32128364</v>
+        <v>4271437.147269367</v>
       </c>
       <c r="G27" t="n">
-        <v>31596076.21160006</v>
+        <v>2612234.134570762</v>
       </c>
       <c r="H27" t="n">
-        <v>26293404.77118874</v>
+        <v>3435694.772114551</v>
       </c>
       <c r="I27" t="n">
-        <v>31112871.03564094</v>
+        <v>3316623.273032742</v>
       </c>
       <c r="J27" t="n">
-        <v>32432941.9721625</v>
+        <v>2953883.956372336</v>
       </c>
       <c r="K27" t="n">
-        <v>34641781.75292563</v>
+        <v>2316771.36435598</v>
       </c>
       <c r="L27" t="n">
-        <v>35593196.07301486</v>
+        <v>2653151.659707552</v>
       </c>
       <c r="M27" t="n">
-        <v>38695354.72744159</v>
+        <v>4194166.673251122</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-110721859.2905917</v>
+        <v>9060308.236759869</v>
       </c>
       <c r="C28" t="n">
-        <v>940404093.4821711</v>
+        <v>6025105.967690339</v>
       </c>
       <c r="D28" t="n">
-        <v>-7982002892.906618</v>
+        <v>5069420.518131282</v>
       </c>
       <c r="E28" t="n">
-        <v>67740819767.42738</v>
+        <v>6439177.551926262</v>
       </c>
       <c r="F28" t="n">
-        <v>-574905944213.1841</v>
+        <v>10032348.80036974</v>
       </c>
       <c r="G28" t="n">
-        <v>4879126129106.559</v>
+        <v>5167301.408451484</v>
       </c>
       <c r="H28" t="n">
-        <v>-41408325750170.35</v>
+        <v>8013641.635755219</v>
       </c>
       <c r="I28" t="n">
-        <v>351425498845974.6</v>
+        <v>6733233.228952554</v>
       </c>
       <c r="J28" t="n">
-        <v>-2982489125762734</v>
+        <v>6812523.716432642</v>
       </c>
       <c r="K28" t="n">
-        <v>2.531188379991715e+16</v>
+        <v>4119125.381381313</v>
       </c>
       <c r="L28" t="n">
-        <v>-2.148177023886602e+17</v>
+        <v>6072965.421475256</v>
       </c>
       <c r="M28" t="n">
-        <v>1.823121725155088e+18</v>
+        <v>9082943.401295813</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>606079093.2637032</v>
+        <v>-6795910.910333381</v>
       </c>
       <c r="C29" t="n">
-        <v>18514347127.02293</v>
+        <v>31322619.88586378</v>
       </c>
       <c r="D29" t="n">
-        <v>564721761049.3318</v>
+        <v>-142672839.5160801</v>
       </c>
       <c r="E29" t="n">
-        <v>17224070674379.14</v>
+        <v>650039952.0216359</v>
       </c>
       <c r="F29" t="n">
-        <v>525335435859278.9</v>
+        <v>-2964174105.826621</v>
       </c>
       <c r="G29" t="n">
-        <v>1.602277026282107e+16</v>
+        <v>13514103146.72527</v>
       </c>
       <c r="H29" t="n">
-        <v>4.886956973630757e+17</v>
+        <v>-61616430689.17957</v>
       </c>
       <c r="I29" t="n">
-        <v>1.490525550123422e+19</v>
+        <v>280931897426.4115</v>
       </c>
       <c r="J29" t="n">
-        <v>4.546114131048422e+20</v>
+        <v>-1280872663134.061</v>
       </c>
       <c r="K29" t="n">
-        <v>1.386568226945512e+22</v>
+        <v>5839974216651.942</v>
       </c>
       <c r="L29" t="n">
-        <v>4.229043513985493e+23</v>
+        <v>-26626609696004.51</v>
       </c>
       <c r="M29" t="n">
-        <v>1.289861450422921e+25</v>
+        <v>121400596929015.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49420427.34269778</v>
+        <v>232850821514.9128</v>
       </c>
       <c r="C30" t="n">
-        <v>43823952.89067242</v>
+        <v>538457027502.8052</v>
       </c>
       <c r="D30" t="n">
-        <v>47932230.97762811</v>
+        <v>1245157226353.833</v>
       </c>
       <c r="E30" t="n">
-        <v>50434564.41435526</v>
+        <v>2879368566414.324</v>
       </c>
       <c r="F30" t="n">
-        <v>49308603.67660741</v>
+        <v>6658406380631.777</v>
       </c>
       <c r="G30" t="n">
-        <v>43476378.74903367</v>
+        <v>15397253575079.87</v>
       </c>
       <c r="H30" t="n">
-        <v>43684219.77805158</v>
+        <v>35605429721856.2</v>
       </c>
       <c r="I30" t="n">
-        <v>48144455.94289538</v>
+        <v>82335891176528.22</v>
       </c>
       <c r="J30" t="n">
-        <v>44749050.3746971</v>
+        <v>190397895858628.7</v>
       </c>
       <c r="K30" t="n">
-        <v>44511887.70592189</v>
+        <v>440286220970645.5</v>
       </c>
       <c r="L30" t="n">
-        <v>41270874.54286989</v>
+        <v>1018141270078198</v>
       </c>
       <c r="M30" t="n">
-        <v>47367289.34178561</v>
+        <v>2354404023512330</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47067424.39012394</v>
+        <v>527614.5747973078</v>
       </c>
       <c r="C31" t="n">
-        <v>48876337.62616707</v>
+        <v>709503.5774252967</v>
       </c>
       <c r="D31" t="n">
-        <v>49450744.8583808</v>
+        <v>805360.0018016256</v>
       </c>
       <c r="E31" t="n">
-        <v>52908352.70762047</v>
+        <v>893577.3594567108</v>
       </c>
       <c r="F31" t="n">
-        <v>47198933.82424341</v>
+        <v>852166.6791345484</v>
       </c>
       <c r="G31" t="n">
-        <v>45237277.77865491</v>
+        <v>490534.862627144</v>
       </c>
       <c r="H31" t="n">
-        <v>44114135.49394717</v>
+        <v>738990.5218376641</v>
       </c>
       <c r="I31" t="n">
-        <v>47835794.40715685</v>
+        <v>768881.2334169151</v>
       </c>
       <c r="J31" t="n">
-        <v>44943918.63665718</v>
+        <v>796451.9573688164</v>
       </c>
       <c r="K31" t="n">
-        <v>47761094.27824728</v>
+        <v>598107.5798555443</v>
       </c>
       <c r="L31" t="n">
-        <v>42732342.30545818</v>
+        <v>588683.2280793552</v>
       </c>
       <c r="M31" t="n">
-        <v>49177131.50951419</v>
+        <v>593865.6704958584</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212546.7508036744</v>
+        <v>1.137538594545274e+229</v>
       </c>
       <c r="C32" t="n">
-        <v>66528.09123041936</v>
+        <v>6.217881675590619e+233</v>
       </c>
       <c r="D32" t="n">
-        <v>19399.30694727693</v>
+        <v>3.398746444036087e+238</v>
       </c>
       <c r="E32" t="n">
-        <v>1924.723636168887</v>
+        <v>1.857783404948874e+243</v>
       </c>
       <c r="F32" t="n">
-        <v>-5913.077020122586</v>
+        <v>1.015480041401637e+248</v>
       </c>
       <c r="G32" t="n">
-        <v>-13158.88012121336</v>
+        <v>5.550699353531197e+252</v>
       </c>
       <c r="H32" t="n">
-        <v>-620.0971536601572</v>
+        <v>3.03405897281498e+257</v>
       </c>
       <c r="I32" t="n">
-        <v>62843.46784228015</v>
+        <v>1.658442164528837e+262</v>
       </c>
       <c r="J32" t="n">
-        <v>86337.76425841851</v>
+        <v>9.065184420378169e+266</v>
       </c>
       <c r="K32" t="n">
-        <v>70069.21820697699</v>
+        <v>4.95510608287107e+271</v>
       </c>
       <c r="L32" t="n">
-        <v>47990.59643387305</v>
+        <v>2.708502679472418e+276</v>
       </c>
       <c r="M32" t="n">
-        <v>5005.885593809918</v>
+        <v>1.480490355205206e+281</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.091317727740695e+280</v>
+        <v>-3.370511187497964e+60</v>
       </c>
       <c r="C33" t="n">
-        <v>4.124525945711474e+285</v>
+        <v>8.482062340264598e+63</v>
       </c>
       <c r="D33" t="n">
-        <v>1.558823232173246e+291</v>
+        <v>-2.13455400507192e+67</v>
       </c>
       <c r="E33" t="n">
-        <v>5.891416131566815e+296</v>
+        <v>5.371713408588835e+70</v>
       </c>
       <c r="F33" t="n">
-        <v>2.226601664570791e+302</v>
+        <v>-1.351818922147199e+74</v>
       </c>
       <c r="G33" t="n">
-        <v>8.415217770996102e+307</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>3.401920875662055e+77</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-8.56110641348539e+80</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.154445846973352e+84</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-5.421772237557117e+87</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1.364416480332573e+91</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-3.433623269726137e+94</v>
+      </c>
+      <c r="M33" t="n">
+        <v>8.640887095948214e+97</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10571496.5275968</v>
+        <v>3467508.030264914</v>
       </c>
       <c r="C34" t="n">
-        <v>9751595.443034122</v>
+        <v>2608685.294657656</v>
       </c>
       <c r="D34" t="n">
-        <v>13358416.80091829</v>
+        <v>3647160.120371704</v>
       </c>
       <c r="E34" t="n">
-        <v>12995196.17848927</v>
+        <v>2965038.936293551</v>
       </c>
       <c r="F34" t="n">
-        <v>15025426.74513512</v>
+        <v>3506054.077254652</v>
       </c>
       <c r="G34" t="n">
-        <v>15056633.53892337</v>
+        <v>3202827.229008223</v>
       </c>
       <c r="H34" t="n">
-        <v>13711156.91672158</v>
+        <v>3331939.403210275</v>
       </c>
       <c r="I34" t="n">
-        <v>14468492.5273686</v>
+        <v>3545802.895415317</v>
       </c>
       <c r="J34" t="n">
-        <v>15112691.1956368</v>
+        <v>3778878.668024971</v>
       </c>
       <c r="K34" t="n">
-        <v>16670787.30181313</v>
+        <v>3799690.690855839</v>
       </c>
       <c r="L34" t="n">
-        <v>16685422.25376057</v>
+        <v>4064570.507706969</v>
       </c>
       <c r="M34" t="n">
-        <v>17035331.70647893</v>
+        <v>4174841.798377345</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-9.332201284189583e+18</v>
+        <v>-60846807935.61971</v>
       </c>
       <c r="C35" t="n">
-        <v>-4.627800190657294e+19</v>
+        <v>-271463741405.9748</v>
       </c>
       <c r="D35" t="n">
-        <v>-2.294907031993762e+20</v>
+        <v>-1211114747589.512</v>
       </c>
       <c r="E35" t="n">
-        <v>-1.13803492889422e+21</v>
+        <v>-5403292085895.661</v>
       </c>
       <c r="F35" t="n">
-        <v>-5.643468249234697e+21</v>
+        <v>-24106347304574.8</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.798572613932567e+22</v>
+        <v>-107548496665071.5</v>
       </c>
       <c r="H35" t="n">
-        <v>-1.387800609009626e+23</v>
+        <v>-479818810406745.4</v>
       </c>
       <c r="I35" t="n">
-        <v>-6.882045942142185e+23</v>
+        <v>-2140672322917611</v>
       </c>
       <c r="J35" t="n">
-        <v>-3.412778178664435e+24</v>
+        <v>-9550434221402068</v>
       </c>
       <c r="K35" t="n">
-        <v>-1.692382613321952e+25</v>
+        <v>-4.260847995905299e+16</v>
       </c>
       <c r="L35" t="n">
-        <v>-8.392455530102923e+25</v>
+        <v>-1.900942430582897e+17</v>
       </c>
       <c r="M35" t="n">
-        <v>-4.161784059361856e+26</v>
+        <v>-8.480898937868531e+17</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1905423.749211115</v>
+        <v>1324610.761519581</v>
       </c>
       <c r="C36" t="n">
-        <v>2561897.291334312</v>
+        <v>1341882.424763932</v>
       </c>
       <c r="D36" t="n">
-        <v>2971504.242127395</v>
+        <v>1563459.58771789</v>
       </c>
       <c r="E36" t="n">
-        <v>2398077.376933802</v>
+        <v>1206842.989462684</v>
       </c>
       <c r="F36" t="n">
-        <v>2271666.876639149</v>
+        <v>1312031.932791308</v>
       </c>
       <c r="G36" t="n">
-        <v>2775604.276945663</v>
+        <v>1313339.162329439</v>
       </c>
       <c r="H36" t="n">
-        <v>2751720.988406858</v>
+        <v>1546169.826888768</v>
       </c>
       <c r="I36" t="n">
-        <v>3444742.245378419</v>
+        <v>1590917.217832873</v>
       </c>
       <c r="J36" t="n">
-        <v>2865787.778278295</v>
+        <v>1522703.49952952</v>
       </c>
       <c r="K36" t="n">
-        <v>2252806.383219095</v>
+        <v>1570817.599281633</v>
       </c>
       <c r="L36" t="n">
-        <v>3202459.486217682</v>
+        <v>1892125.072641159</v>
       </c>
       <c r="M36" t="n">
-        <v>3336600.527117993</v>
+        <v>1829258.713448465</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6443993.725578997</v>
+        <v>4600176.455872751</v>
       </c>
       <c r="C37" t="n">
-        <v>7144175.66352823</v>
+        <v>3995971.831485616</v>
       </c>
       <c r="D37" t="n">
-        <v>4906399.039641025</v>
+        <v>4736627.262182789</v>
       </c>
       <c r="E37" t="n">
-        <v>6758962.9330273</v>
+        <v>4194471.353757012</v>
       </c>
       <c r="F37" t="n">
-        <v>5329894.227405896</v>
+        <v>3602127.22544475</v>
       </c>
       <c r="G37" t="n">
-        <v>6536172.720394268</v>
+        <v>3202681.660001345</v>
       </c>
       <c r="H37" t="n">
-        <v>3234956.123286891</v>
+        <v>3304466.874376441</v>
       </c>
       <c r="I37" t="n">
-        <v>4782459.697356758</v>
+        <v>4604371.990602552</v>
       </c>
       <c r="J37" t="n">
-        <v>6285224.845188309</v>
+        <v>3625201.361561711</v>
       </c>
       <c r="K37" t="n">
-        <v>4240771.270067671</v>
+        <v>3211999.27654756</v>
       </c>
       <c r="L37" t="n">
-        <v>3721791.427370472</v>
+        <v>4197685.242414244</v>
       </c>
       <c r="M37" t="n">
-        <v>5216473.458876893</v>
+        <v>4499672.078031287</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2285228.572564624</v>
+        <v>3838493.147136419</v>
       </c>
       <c r="C38" t="n">
-        <v>1847383.988615562</v>
+        <v>4433684.273629247</v>
       </c>
       <c r="D38" t="n">
-        <v>2566459.068948221</v>
+        <v>4271390.700861622</v>
       </c>
       <c r="E38" t="n">
-        <v>3017504.493128188</v>
+        <v>3749956.93004837</v>
       </c>
       <c r="F38" t="n">
-        <v>3110400.943465579</v>
+        <v>4372632.327463498</v>
       </c>
       <c r="G38" t="n">
-        <v>2057005.364291732</v>
+        <v>3439770.537517483</v>
       </c>
       <c r="H38" t="n">
-        <v>1686803.222876151</v>
+        <v>4052382.250457166</v>
       </c>
       <c r="I38" t="n">
-        <v>2924147.860637643</v>
+        <v>3771678.03568235</v>
       </c>
       <c r="J38" t="n">
-        <v>3153775.962064267</v>
+        <v>4003308.19832984</v>
       </c>
       <c r="K38" t="n">
-        <v>1814063.034257528</v>
+        <v>4482087.683237997</v>
       </c>
       <c r="L38" t="n">
-        <v>2027511.575965425</v>
+        <v>4393076.86913039</v>
       </c>
       <c r="M38" t="n">
-        <v>3096594.563679095</v>
+        <v>4550344.111736657</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3619153.765748599</v>
+        <v>5138383.540412173</v>
       </c>
       <c r="C39" t="n">
-        <v>3794026.351646716</v>
+        <v>5284185.324490692</v>
       </c>
       <c r="D39" t="n">
-        <v>3834775.103824409</v>
+        <v>5979838.637121831</v>
       </c>
       <c r="E39" t="n">
-        <v>5105174.291789185</v>
+        <v>4879509.685769076</v>
       </c>
       <c r="F39" t="n">
-        <v>4717237.464890108</v>
+        <v>4957977.801142079</v>
       </c>
       <c r="G39" t="n">
-        <v>4988738.401415783</v>
+        <v>4620731.935898054</v>
       </c>
       <c r="H39" t="n">
-        <v>4150602.625005362</v>
+        <v>5093169.918736691</v>
       </c>
       <c r="I39" t="n">
-        <v>3959342.138740893</v>
+        <v>5281810.378706257</v>
       </c>
       <c r="J39" t="n">
-        <v>3935173.204731023</v>
+        <v>5679519.462495497</v>
       </c>
       <c r="K39" t="n">
-        <v>4150836.67177056</v>
+        <v>5933962.555211917</v>
       </c>
       <c r="L39" t="n">
-        <v>4461532.806586742</v>
+        <v>6094743.02307174</v>
       </c>
       <c r="M39" t="n">
-        <v>4699136.793136259</v>
+        <v>6294120.839629087</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10317857.23997632</v>
+        <v>5675805.683948606</v>
       </c>
       <c r="C40" t="n">
-        <v>10116432.39777501</v>
+        <v>5552883.322971654</v>
       </c>
       <c r="D40" t="n">
-        <v>12187544.32176059</v>
+        <v>5924238.785649847</v>
       </c>
       <c r="E40" t="n">
-        <v>13749053.37161546</v>
+        <v>5623965.933435566</v>
       </c>
       <c r="F40" t="n">
-        <v>13262255.2350489</v>
+        <v>5973291.811571324</v>
       </c>
       <c r="G40" t="n">
-        <v>13615998.66605873</v>
+        <v>5045836.203494892</v>
       </c>
       <c r="H40" t="n">
-        <v>10808233.03028762</v>
+        <v>5689153.836411268</v>
       </c>
       <c r="I40" t="n">
-        <v>13198657.78455758</v>
+        <v>5895950.208094833</v>
       </c>
       <c r="J40" t="n">
-        <v>11804079.98224884</v>
+        <v>6357704.219205192</v>
       </c>
       <c r="K40" t="n">
-        <v>13557736.72810531</v>
+        <v>6028074.421234373</v>
       </c>
       <c r="L40" t="n">
-        <v>11498905.19729408</v>
+        <v>6587870.745010298</v>
       </c>
       <c r="M40" t="n">
-        <v>13079232.11234277</v>
+        <v>6370490.805231101</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>10328758.43504217</v>
+        <v>3157759.772552629</v>
       </c>
       <c r="C41" t="n">
-        <v>18040281.14242684</v>
+        <v>3394694.007403765</v>
       </c>
       <c r="D41" t="n">
-        <v>15163137.51214821</v>
+        <v>3532196.835325746</v>
       </c>
       <c r="E41" t="n">
-        <v>12504732.96201034</v>
+        <v>2999062.60985492</v>
       </c>
       <c r="F41" t="n">
-        <v>12815020.05561991</v>
+        <v>3685319.597981027</v>
       </c>
       <c r="G41" t="n">
-        <v>13344152.81212156</v>
+        <v>3016942.197213838</v>
       </c>
       <c r="H41" t="n">
-        <v>11736141.66805343</v>
+        <v>3044632.026740984</v>
       </c>
       <c r="I41" t="n">
-        <v>13621979.03736323</v>
+        <v>3354804.996193519</v>
       </c>
       <c r="J41" t="n">
-        <v>14046571.91795474</v>
+        <v>3447302.321679882</v>
       </c>
       <c r="K41" t="n">
-        <v>14443399.62506455</v>
+        <v>3217693.345008638</v>
       </c>
       <c r="L41" t="n">
-        <v>13511683.28333191</v>
+        <v>3499752.812064094</v>
       </c>
       <c r="M41" t="n">
-        <v>16903842.88440126</v>
+        <v>3844989.655037768</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>9907363.968574032</v>
+        <v>4475945.094204333</v>
       </c>
       <c r="C42" t="n">
-        <v>8934945.127161991</v>
+        <v>4992312.98086611</v>
       </c>
       <c r="D42" t="n">
-        <v>10691307.74443654</v>
+        <v>4818409.934952097</v>
       </c>
       <c r="E42" t="n">
-        <v>10432824.93911959</v>
+        <v>4649420.691695687</v>
       </c>
       <c r="F42" t="n">
-        <v>11318580.45681021</v>
+        <v>4536708.067529174</v>
       </c>
       <c r="G42" t="n">
-        <v>14170971.81649493</v>
+        <v>3499336.604327744</v>
       </c>
       <c r="H42" t="n">
-        <v>9792513.161056943</v>
+        <v>4110668.672631024</v>
       </c>
       <c r="I42" t="n">
-        <v>11959152.74107216</v>
+        <v>4449641.983573404</v>
       </c>
       <c r="J42" t="n">
-        <v>12498439.74138966</v>
+        <v>4388692.794676548</v>
       </c>
       <c r="K42" t="n">
-        <v>13055212.14581097</v>
+        <v>4251868.621464098</v>
       </c>
       <c r="L42" t="n">
-        <v>11493479.38301616</v>
+        <v>4537177.192104312</v>
       </c>
       <c r="M42" t="n">
-        <v>12652745.54601364</v>
+        <v>4898893.916776533</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5635192.486336331</v>
+        <v>3332003.240798734</v>
       </c>
       <c r="C43" t="n">
-        <v>4879427.734462734</v>
+        <v>3390808.892203739</v>
       </c>
       <c r="D43" t="n">
-        <v>6841761.341471108</v>
+        <v>3434061.909305923</v>
       </c>
       <c r="E43" t="n">
-        <v>6764535.680048743</v>
+        <v>3585649.088037662</v>
       </c>
       <c r="F43" t="n">
-        <v>6508787.68285333</v>
+        <v>3842078.160492855</v>
       </c>
       <c r="G43" t="n">
-        <v>7275634.947286086</v>
+        <v>2820141.096178117</v>
       </c>
       <c r="H43" t="n">
-        <v>5197158.309568357</v>
+        <v>2924113.468680401</v>
       </c>
       <c r="I43" t="n">
-        <v>6101438.395368154</v>
+        <v>3687710.26502517</v>
       </c>
       <c r="J43" t="n">
-        <v>7366158.540407685</v>
+        <v>3400638.714501671</v>
       </c>
       <c r="K43" t="n">
-        <v>6793407.928017586</v>
+        <v>3518722.27463417</v>
       </c>
       <c r="L43" t="n">
-        <v>5333125.70137261</v>
+        <v>3856972.918157252</v>
       </c>
       <c r="M43" t="n">
-        <v>5802906.789545125</v>
+        <v>3898602.91990964</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>14166298.72614445</v>
+        <v>5176797.105831292</v>
       </c>
       <c r="C44" t="n">
-        <v>15933438.1611306</v>
+        <v>6380513.133765154</v>
       </c>
       <c r="D44" t="n">
-        <v>15348859.14529094</v>
+        <v>5733383.516083396</v>
       </c>
       <c r="E44" t="n">
-        <v>15347024.24915165</v>
+        <v>5637246.954197303</v>
       </c>
       <c r="F44" t="n">
-        <v>14155360.83531186</v>
+        <v>6612009.276835981</v>
       </c>
       <c r="G44" t="n">
-        <v>16324891.00907586</v>
+        <v>5101102.068808611</v>
       </c>
       <c r="H44" t="n">
-        <v>13858057.49393469</v>
+        <v>5511205.561294515</v>
       </c>
       <c r="I44" t="n">
-        <v>15764873.89917093</v>
+        <v>6300251.172286288</v>
       </c>
       <c r="J44" t="n">
-        <v>15060519.16303279</v>
+        <v>5530629.010527632</v>
       </c>
       <c r="K44" t="n">
-        <v>13078927.54899295</v>
+        <v>5162882.489711639</v>
       </c>
       <c r="L44" t="n">
-        <v>13666070.66823519</v>
+        <v>6026344.353754635</v>
       </c>
       <c r="M44" t="n">
-        <v>12897452.4043398</v>
+        <v>6915323.723175293</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.527855809015247e+165</v>
+        <v>3338997.683947355</v>
       </c>
       <c r="C45" t="n">
-        <v>1.101718071555338e+169</v>
+        <v>3929202.66690782</v>
       </c>
       <c r="D45" t="n">
-        <v>4.801629526742881e+172</v>
+        <v>3316490.918918057</v>
       </c>
       <c r="E45" t="n">
-        <v>2.092699276461946e+176</v>
+        <v>3441726.085319969</v>
       </c>
       <c r="F45" t="n">
-        <v>9.120633396044306e+179</v>
+        <v>3637171.882311881</v>
       </c>
       <c r="G45" t="n">
-        <v>3.975055302053637e+183</v>
+        <v>3106653.942622659</v>
       </c>
       <c r="H45" t="n">
-        <v>1.732452557652168e+187</v>
+        <v>3426021.251987874</v>
       </c>
       <c r="I45" t="n">
-        <v>7.550566310272274e+190</v>
+        <v>3747812.948967656</v>
       </c>
       <c r="J45" t="n">
-        <v>3.290771303029531e+194</v>
+        <v>3759107.91003679</v>
       </c>
       <c r="K45" t="n">
-        <v>1.434220338428121e+198</v>
+        <v>3530898.499219212</v>
       </c>
       <c r="L45" t="n">
-        <v>6.250777674119083e+201</v>
+        <v>3732666.368330769</v>
       </c>
       <c r="M45" t="n">
-        <v>2.724283046640379e+205</v>
+        <v>4162448.809364418</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>13308840.43526356</v>
+        <v>2207871.218422426</v>
       </c>
       <c r="C46" t="n">
-        <v>10212372.26097157</v>
+        <v>2429953.050697414</v>
       </c>
       <c r="D46" t="n">
-        <v>7305088.103675192</v>
+        <v>2494525.49191122</v>
       </c>
       <c r="E46" t="n">
-        <v>6469222.39639848</v>
+        <v>1820542.137900813</v>
       </c>
       <c r="F46" t="n">
-        <v>7951069.41658858</v>
+        <v>2149540.511392031</v>
       </c>
       <c r="G46" t="n">
-        <v>11648950.40876701</v>
+        <v>1877716.212124469</v>
       </c>
       <c r="H46" t="n">
-        <v>6096540.357429923</v>
+        <v>2157396.307775547</v>
       </c>
       <c r="I46" t="n">
-        <v>9818767.118183628</v>
+        <v>2522395.17807431</v>
       </c>
       <c r="J46" t="n">
-        <v>8622918.615712451</v>
+        <v>2018906.372690329</v>
       </c>
       <c r="K46" t="n">
-        <v>8780665.131333536</v>
+        <v>2254326.624184428</v>
       </c>
       <c r="L46" t="n">
-        <v>6159904.533894892</v>
+        <v>2149860.062657349</v>
       </c>
       <c r="M46" t="n">
-        <v>8180861.119278081</v>
+        <v>2207416.677957328</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>4.557007264743704e+161</v>
+        <v>-10358817.43679554</v>
       </c>
       <c r="C47" t="n">
-        <v>6.162603894844485e+165</v>
+        <v>76112350.37209934</v>
       </c>
       <c r="D47" t="n">
-        <v>8.333909638146771e+169</v>
+        <v>-553695504.7801801</v>
       </c>
       <c r="E47" t="n">
-        <v>1.127024404649787e+174</v>
+        <v>4032549148.379058</v>
       </c>
       <c r="F47" t="n">
-        <v>1.524115407805958e+178</v>
+        <v>-29366460334.29187</v>
       </c>
       <c r="G47" t="n">
-        <v>2.06111577240721e+182</v>
+        <v>213846624763.3918</v>
       </c>
       <c r="H47" t="n">
-        <v>2.787320570022495e+186</v>
+        <v>-1557243605384.385</v>
       </c>
       <c r="I47" t="n">
-        <v>3.769393288857716e+190</v>
+        <v>11339929203213.72</v>
       </c>
       <c r="J47" t="n">
-        <v>5.097485348077821e+194</v>
+        <v>-82577964591519.44</v>
       </c>
       <c r="K47" t="n">
-        <v>6.893511735874719e+198</v>
+        <v>601337101183948.1</v>
       </c>
       <c r="L47" t="n">
-        <v>9.322342450785402e+202</v>
+        <v>-4378968536704702</v>
       </c>
       <c r="M47" t="n">
-        <v>1.260693708802224e+207</v>
+        <v>3.188788021765384e+16</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>10682037.5148879</v>
+        <v>5449215.033679767</v>
       </c>
       <c r="C48" t="n">
-        <v>18202027.10977313</v>
+        <v>6075679.858562046</v>
       </c>
       <c r="D48" t="n">
-        <v>31037092.81174368</v>
+        <v>6285863.748455075</v>
       </c>
       <c r="E48" t="n">
-        <v>52918652.57893552</v>
+        <v>6150898.44952808</v>
       </c>
       <c r="F48" t="n">
-        <v>90228732.61044696</v>
+        <v>6626831.100362848</v>
       </c>
       <c r="G48" t="n">
-        <v>154162419.7268214</v>
+        <v>6469737.966376457</v>
       </c>
       <c r="H48" t="n">
-        <v>262195121.2024344</v>
+        <v>6996116.086393354</v>
       </c>
       <c r="I48" t="n">
-        <v>446871820.8916047</v>
+        <v>7029069.64975116</v>
       </c>
       <c r="J48" t="n">
-        <v>761513919.4181056</v>
+        <v>7210225.871971732</v>
       </c>
       <c r="K48" t="n">
-        <v>1298059168.776563</v>
+        <v>7725409.268294202</v>
       </c>
       <c r="L48" t="n">
-        <v>2212067658.09796</v>
+        <v>7835468.74651131</v>
       </c>
       <c r="M48" t="n">
-        <v>3769932108.973394</v>
+        <v>7969176.98800783</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>580732.392688173</v>
+        <v>2.309220452895094e+171</v>
       </c>
       <c r="C49" t="n">
-        <v>551404.973053175</v>
+        <v>1.023059669708081e+175</v>
       </c>
       <c r="D49" t="n">
-        <v>732036.5028101709</v>
+        <v>4.532486651376274e+178</v>
       </c>
       <c r="E49" t="n">
-        <v>826625.9309685556</v>
+        <v>2.008038812708348e+182</v>
       </c>
       <c r="F49" t="n">
-        <v>913567.2428115522</v>
+        <v>8.896264199959165e+185</v>
       </c>
       <c r="G49" t="n">
-        <v>870870.9347973926</v>
+        <v>3.941334012798787e+189</v>
       </c>
       <c r="H49" t="n">
-        <v>515040.7614596533</v>
+        <v>1.746138991748457e+193</v>
       </c>
       <c r="I49" t="n">
-        <v>755092.8200214261</v>
+        <v>7.73596292169916e+196</v>
       </c>
       <c r="J49" t="n">
-        <v>783667.879175811</v>
+        <v>3.427282857132675e+200</v>
       </c>
       <c r="K49" t="n">
-        <v>809911.7618641763</v>
+        <v>1.518397632161287e+204</v>
       </c>
       <c r="L49" t="n">
-        <v>610233.4633106811</v>
+        <v>6.726994722816225e+207</v>
       </c>
       <c r="M49" t="n">
-        <v>599444.0162239769</v>
+        <v>2.980277171295704e+211</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>5.8931624092056e+199</v>
+        <v>-1.240164220476663e+236</v>
       </c>
       <c r="C50" t="n">
-        <v>3.17735903262797e+202</v>
+        <v>1.089139979097197e+241</v>
       </c>
       <c r="D50" t="n">
-        <v>1.713105752261703e+205</v>
+        <v>-9.56507109688999e+245</v>
       </c>
       <c r="E50" t="n">
-        <v>9.236385590346212e+207</v>
+        <v>8.400259548308752e+250</v>
       </c>
       <c r="F50" t="n">
-        <v>4.979892143898576e+210</v>
+        <v>-7.377295972415284e+255</v>
       </c>
       <c r="G50" t="n">
-        <v>2.684959990278316e+213</v>
+        <v>6.478906461357161e+260</v>
       </c>
       <c r="H50" t="n">
-        <v>1.447623751897499e+216</v>
+        <v>-5.689920682587554e+265</v>
       </c>
       <c r="I50" t="n">
-        <v>7.805012121765604e+218</v>
+        <v>4.997015710480847e+270</v>
       </c>
       <c r="J50" t="n">
-        <v>4.208152438854252e+221</v>
+        <v>-4.388491053523254e+275</v>
       </c>
       <c r="K50" t="n">
-        <v>2.268868602939346e+224</v>
+        <v>3.85407107815565e+280</v>
       </c>
       <c r="L50" t="n">
-        <v>1.223283807372129e+227</v>
+        <v>-3.384731492969682e+285</v>
       </c>
       <c r="M50" t="n">
-        <v>6.59546027231466e+229</v>
+        <v>2.972546963244691e+290</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-1.471005533414647e+48</v>
+        <v>-5.825524747898143e+197</v>
       </c>
       <c r="C51" t="n">
-        <v>3.46139599648149e+49</v>
+        <v>1.409329523566123e+202</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.144947093873914e+50</v>
+        <v>-3.409494924404436e+206</v>
       </c>
       <c r="E51" t="n">
-        <v>1.916572482011301e+52</v>
+        <v>8.248358843803221e+210</v>
       </c>
       <c r="F51" t="n">
-        <v>-4.509851367316714e+53</v>
+        <v>-1.995469274031288e+215</v>
       </c>
       <c r="G51" t="n">
-        <v>1.06120480942857e+55</v>
+        <v>4.82750289967616e+219</v>
       </c>
       <c r="H51" t="n">
-        <v>-2.497101469276073e+56</v>
+        <v>-1.167884895531412e+224</v>
       </c>
       <c r="I51" t="n">
-        <v>5.875883422746999e+57</v>
+        <v>2.825384381026296e+228</v>
       </c>
       <c r="J51" t="n">
-        <v>-1.382643293535137e+59</v>
+        <v>-6.835259991024207e+232</v>
       </c>
       <c r="K51" t="n">
-        <v>3.253472439151902e+60</v>
+        <v>1.653607893447946e+237</v>
       </c>
       <c r="L51" t="n">
-        <v>-7.655686005070135e+61</v>
+        <v>-4.000460946422061e+241</v>
       </c>
       <c r="M51" t="n">
-        <v>1.80144535736423e+63</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>3221538.064472594</v>
-      </c>
-      <c r="C52" t="n">
-        <v>4020132.288972656</v>
-      </c>
-      <c r="D52" t="n">
-        <v>3255915.030994281</v>
-      </c>
-      <c r="E52" t="n">
-        <v>4396568.809285652</v>
-      </c>
-      <c r="F52" t="n">
-        <v>3824773.885262249</v>
-      </c>
-      <c r="G52" t="n">
-        <v>4484722.024252371</v>
-      </c>
-      <c r="H52" t="n">
-        <v>4270692.928388655</v>
-      </c>
-      <c r="I52" t="n">
-        <v>4576818.229104469</v>
-      </c>
-      <c r="J52" t="n">
-        <v>4939190.984146273</v>
-      </c>
-      <c r="K52" t="n">
-        <v>5331892.704921167</v>
-      </c>
-      <c r="L52" t="n">
-        <v>5524245.262600005</v>
-      </c>
-      <c r="M52" t="n">
-        <v>5973278.888128622</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>-678831.2447545889</v>
-      </c>
-      <c r="C53" t="n">
-        <v>2324066.490787772</v>
-      </c>
-      <c r="D53" t="n">
-        <v>-7627566.249874301</v>
-      </c>
-      <c r="E53" t="n">
-        <v>25326208.10250478</v>
-      </c>
-      <c r="F53" t="n">
-        <v>-81314457.80551493</v>
-      </c>
-      <c r="G53" t="n">
-        <v>263849995.9053974</v>
-      </c>
-      <c r="H53" t="n">
-        <v>-856380918.3073031</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2778347482.122957</v>
-      </c>
-      <c r="J53" t="n">
-        <v>-9014498061.858643</v>
-      </c>
-      <c r="K53" t="n">
-        <v>29249821110.86427</v>
-      </c>
-      <c r="L53" t="n">
-        <v>-94907627183.67873</v>
-      </c>
-      <c r="M53" t="n">
-        <v>307946928814.0293</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1739351.220887444</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1451728.686807883</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1478171.07571275</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1709149.116455442</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1362174.193036249</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1477245.982139972</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1563052.731087344</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1731906.77592677</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1787296.242907615</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1729992.73051983</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1789284.420922015</v>
-      </c>
-      <c r="M54" t="n">
-        <v>2122094.581409391</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>3328074.472903761</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3614244.121100862</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3117492.985206173</v>
-      </c>
-      <c r="E55" t="n">
-        <v>3969992.277677895</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3544296.061351918</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3073217.256777192</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2610761.165697938</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3033189.2919859</v>
-      </c>
-      <c r="J55" t="n">
-        <v>4469919.072607515</v>
-      </c>
-      <c r="K55" t="n">
-        <v>3633105.902036283</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3367875.585411379</v>
-      </c>
-      <c r="M55" t="n">
-        <v>4507928.084177618</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3950946.410232727</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3849601.335457145</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4449140.243173596</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4291301.259013698</v>
-      </c>
-      <c r="F56" t="n">
-        <v>3774430.934136539</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4401780.717520201</v>
-      </c>
-      <c r="H56" t="n">
-        <v>3763705.791125653</v>
-      </c>
-      <c r="I56" t="n">
-        <v>4091240.22237683</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3815555.398014433</v>
-      </c>
-      <c r="K56" t="n">
-        <v>4052324.375994202</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4536364.393221868</v>
-      </c>
-      <c r="M56" t="n">
-        <v>4452752.806599757</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>5723295.293271286</v>
-      </c>
-      <c r="C57" t="n">
-        <v>5583741.635346297</v>
-      </c>
-      <c r="D57" t="n">
-        <v>5804003.20705685</v>
-      </c>
-      <c r="E57" t="n">
-        <v>6577065.463458442</v>
-      </c>
-      <c r="F57" t="n">
-        <v>5557174.805518884</v>
-      </c>
-      <c r="G57" t="n">
-        <v>5719237.232595837</v>
-      </c>
-      <c r="H57" t="n">
-        <v>5526376.046515812</v>
-      </c>
-      <c r="I57" t="n">
-        <v>6031404.695414596</v>
-      </c>
-      <c r="J57" t="n">
-        <v>6313610.609378989</v>
-      </c>
-      <c r="K57" t="n">
-        <v>6808395.173587963</v>
-      </c>
-      <c r="L57" t="n">
-        <v>7163582.613664061</v>
-      </c>
-      <c r="M57" t="n">
-        <v>7428875.162679987</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>5118292.36435938</v>
-      </c>
-      <c r="C58" t="n">
-        <v>5606622.673987012</v>
-      </c>
-      <c r="D58" t="n">
-        <v>5477804.894776613</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5843086.222539819</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5536554.923361252</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5879429.545374343</v>
-      </c>
-      <c r="H58" t="n">
-        <v>5102789.985832589</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5581809.098631216</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5781555.921223035</v>
-      </c>
-      <c r="K58" t="n">
-        <v>6236058.990846538</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5898960.199640735</v>
-      </c>
-      <c r="M58" t="n">
-        <v>6451095.953132916</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>3312629.625081762</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3219712.497538893</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3458642.071591489</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3598188.683319773</v>
-      </c>
-      <c r="F59" t="n">
-        <v>3067150.341162219</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3755558.120378262</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2824367.620331617</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3119325.744306348</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3431812.936810802</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3526685.546719641</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3299514.239094232</v>
-      </c>
-      <c r="M59" t="n">
-        <v>3584054.872901981</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>4200815.258938229</v>
-      </c>
-      <c r="C60" t="n">
-        <v>4514491.241234687</v>
-      </c>
-      <c r="D60" t="n">
-        <v>5034135.539296287</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4863590.650951969</v>
-      </c>
-      <c r="F60" t="n">
-        <v>4698045.31811324</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4588860.528257755</v>
-      </c>
-      <c r="H60" t="n">
-        <v>3762336.677094394</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4170146.494082433</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4512910.81628842</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4455845.93066803</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4323002.05268923</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4612360.800376247</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>3363539.669997138</v>
-      </c>
-      <c r="C61" t="n">
-        <v>3461068.814264811</v>
-      </c>
-      <c r="D61" t="n">
-        <v>3544231.820909664</v>
-      </c>
-      <c r="E61" t="n">
-        <v>3612711.316141529</v>
-      </c>
-      <c r="F61" t="n">
-        <v>3790418.857224745</v>
-      </c>
-      <c r="G61" t="n">
-        <v>4073884.006628196</v>
-      </c>
-      <c r="H61" t="n">
-        <v>3396106.371205163</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3212904.815623495</v>
-      </c>
-      <c r="J61" t="n">
-        <v>4006423.51221653</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3750301.883028262</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3900391.439032722</v>
-      </c>
-      <c r="M61" t="n">
-        <v>4271790.430982035</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>6668218.267913945</v>
-      </c>
-      <c r="C62" t="n">
-        <v>5711165.601841734</v>
-      </c>
-      <c r="D62" t="n">
-        <v>6941763.365701173</v>
-      </c>
-      <c r="E62" t="n">
-        <v>6322110.848445189</v>
-      </c>
-      <c r="F62" t="n">
-        <v>6254070.988264586</v>
-      </c>
-      <c r="G62" t="n">
-        <v>7257551.338940986</v>
-      </c>
-      <c r="H62" t="n">
-        <v>5422258.735976825</v>
-      </c>
-      <c r="I62" t="n">
-        <v>6216042.800932329</v>
-      </c>
-      <c r="J62" t="n">
-        <v>7035770.621114789</v>
-      </c>
-      <c r="K62" t="n">
-        <v>6297493.73779633</v>
-      </c>
-      <c r="L62" t="n">
-        <v>5961775.051248971</v>
-      </c>
-      <c r="M62" t="n">
-        <v>6858015.03085092</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>3557968.180084888</v>
-      </c>
-      <c r="C63" t="n">
-        <v>3542523.9558521</v>
-      </c>
-      <c r="D63" t="n">
-        <v>4146954.764190952</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3548962.608213883</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3689423.724362772</v>
-      </c>
-      <c r="G63" t="n">
-        <v>3900616.752941267</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3430782.569506221</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3722592.297617948</v>
-      </c>
-      <c r="J63" t="n">
-        <v>4061782.762943568</v>
-      </c>
-      <c r="K63" t="n">
-        <v>4091059.934125102</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3881432.152426282</v>
-      </c>
-      <c r="M63" t="n">
-        <v>4102432.133515074</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2229310.565591144</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2267213.929633007</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2492654.783055114</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2560597.363280378</v>
-      </c>
-      <c r="F64" t="n">
-        <v>1890000.927770549</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2222400.669182679</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1894728.435698245</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2237094.862293825</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2605532.700125903</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2105500.533833933</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2344389.381691632</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2243416.593274468</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>-21938713.95683786</v>
-      </c>
-      <c r="C65" t="n">
-        <v>339002073.4379835</v>
-      </c>
-      <c r="D65" t="n">
-        <v>-5196470482.942421</v>
-      </c>
-      <c r="E65" t="n">
-        <v>79675764815.42035</v>
-      </c>
-      <c r="F65" t="n">
-        <v>-1221625762847.726</v>
-      </c>
-      <c r="G65" t="n">
-        <v>18730547709830.41</v>
-      </c>
-      <c r="H65" t="n">
-        <v>-287185714103433.8</v>
-      </c>
-      <c r="I65" t="n">
-        <v>4403268648701562</v>
-      </c>
-      <c r="J65" t="n">
-        <v>-6.75130197886293e+16</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1.035141892189124e+18</v>
-      </c>
-      <c r="L65" t="n">
-        <v>-1.587129031292031e+19</v>
-      </c>
-      <c r="M65" t="n">
-        <v>2.433462099232617e+20</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>5071816.249799227</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5332421.295527522</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5944041.433234944</v>
-      </c>
-      <c r="E66" t="n">
-        <v>6138517.040516397</v>
-      </c>
-      <c r="F66" t="n">
-        <v>5986938.175977897</v>
-      </c>
-      <c r="G66" t="n">
-        <v>6445308.418834903</v>
-      </c>
-      <c r="H66" t="n">
-        <v>6051835.70124331</v>
-      </c>
-      <c r="I66" t="n">
-        <v>6776409.736753573</v>
-      </c>
-      <c r="J66" t="n">
-        <v>6788678.738619697</v>
-      </c>
-      <c r="K66" t="n">
-        <v>6948005.806252558</v>
-      </c>
-      <c r="L66" t="n">
-        <v>7440161.455073395</v>
-      </c>
-      <c r="M66" t="n">
-        <v>7526002.166662397</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>-1.563335416827974e+197</v>
-      </c>
-      <c r="C67" t="n">
-        <v>2.142651196475947e+201</v>
-      </c>
-      <c r="D67" t="n">
-        <v>-2.936640531738802e+205</v>
-      </c>
-      <c r="E67" t="n">
-        <v>4.024853707796657e+209</v>
-      </c>
-      <c r="F67" t="n">
-        <v>-5.516319479378943e+213</v>
-      </c>
-      <c r="G67" t="n">
-        <v>7.560468729491758e+217</v>
-      </c>
-      <c r="H67" t="n">
-        <v>-1.036210604249813e+222</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1.420192920276708e+226</v>
-      </c>
-      <c r="J67" t="n">
-        <v>-1.946465248021947e+230</v>
-      </c>
-      <c r="K67" t="n">
-        <v>2.667755139223586e+234</v>
-      </c>
-      <c r="L67" t="n">
-        <v>-3.656329076558786e+238</v>
-      </c>
-      <c r="M67" t="n">
-        <v>5.011232897476495e+242</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>-1.499602896442556e+226</v>
-      </c>
-      <c r="C68" t="n">
-        <v>8.023137154938272e+230</v>
-      </c>
-      <c r="D68" t="n">
-        <v>-4.292518370006815e+235</v>
-      </c>
-      <c r="E68" t="n">
-        <v>2.296572226177745e+240</v>
-      </c>
-      <c r="F68" t="n">
-        <v>-1.228706212861852e+245</v>
-      </c>
-      <c r="G68" t="n">
-        <v>6.57379263023652e+249</v>
-      </c>
-      <c r="H68" t="n">
-        <v>-3.517093760330062e+254</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1.881706529965122e+259</v>
-      </c>
-      <c r="J68" t="n">
-        <v>-1.006745826582994e+264</v>
-      </c>
-      <c r="K68" t="n">
-        <v>5.386265834774262e+268</v>
-      </c>
-      <c r="L68" t="n">
-        <v>-2.881746204136342e+273</v>
-      </c>
-      <c r="M68" t="n">
-        <v>1.541784501507482e+278</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>2.774730038986896e+180</v>
-      </c>
-      <c r="C69" t="n">
-        <v>3.262536757862514e+184</v>
-      </c>
-      <c r="D69" t="n">
-        <v>3.836101511443043e+188</v>
-      </c>
-      <c r="E69" t="n">
-        <v>4.510500845892914e+192</v>
-      </c>
-      <c r="F69" t="n">
-        <v>5.303461814061217e+196</v>
-      </c>
-      <c r="G69" t="n">
-        <v>6.235827943323982e+200</v>
-      </c>
-      <c r="H69" t="n">
-        <v>7.33210712211444e+204</v>
-      </c>
-      <c r="I69" t="n">
-        <v>8.621115806717534e+208</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1.013673648174979e+213</v>
-      </c>
-      <c r="K69" t="n">
-        <v>1.1918808284697e+217</v>
-      </c>
-      <c r="L69" t="n">
-        <v>1.401417420519152e+221</v>
-      </c>
-      <c r="M69" t="n">
-        <v>1.647791238538646e+225</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>1.12623895887529e+187</v>
-      </c>
-      <c r="C70" t="n">
-        <v>3.270661574522848e+191</v>
-      </c>
-      <c r="D70" t="n">
-        <v>9.49818602061411e+195</v>
-      </c>
-      <c r="E70" t="n">
-        <v>2.758326889731804e+200</v>
-      </c>
-      <c r="F70" t="n">
-        <v>8.010337146592968e+204</v>
-      </c>
-      <c r="G70" t="n">
-        <v>2.326247169650226e+209</v>
-      </c>
-      <c r="H70" t="n">
-        <v>6.755553224881831e+213</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1.961850828649192e+218</v>
-      </c>
-      <c r="J70" t="n">
-        <v>5.697325660458908e+222</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1.654535564443151e+227</v>
-      </c>
-      <c r="L70" t="n">
-        <v>4.804864768405599e+231</v>
-      </c>
-      <c r="M70" t="n">
-        <v>1.39535987855513e+236</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>20598408.57803062</v>
-      </c>
-      <c r="C71" t="n">
-        <v>22253942.60705486</v>
-      </c>
-      <c r="D71" t="n">
-        <v>24059668.69427791</v>
-      </c>
-      <c r="E71" t="n">
-        <v>24861945.60318459</v>
-      </c>
-      <c r="F71" t="n">
-        <v>27567145.09442734</v>
-      </c>
-      <c r="G71" t="n">
-        <v>39895241.73336594</v>
-      </c>
-      <c r="H71" t="n">
-        <v>22680278.75810426</v>
-      </c>
-      <c r="I71" t="n">
-        <v>32101329.01110154</v>
-      </c>
-      <c r="J71" t="n">
-        <v>33564331.92797624</v>
-      </c>
-      <c r="K71" t="n">
-        <v>34330693.20419536</v>
-      </c>
-      <c r="L71" t="n">
-        <v>35297550.73742467</v>
-      </c>
-      <c r="M71" t="n">
-        <v>38163999.98966759</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>4032388.145078234</v>
-      </c>
-      <c r="C72" t="n">
-        <v>3123102.462893773</v>
-      </c>
-      <c r="D72" t="n">
-        <v>4658426.552800875</v>
-      </c>
-      <c r="E72" t="n">
-        <v>2502556.918516232</v>
-      </c>
-      <c r="F72" t="n">
-        <v>5327722.421892776</v>
-      </c>
-      <c r="G72" t="n">
-        <v>3417586.596779304</v>
-      </c>
-      <c r="H72" t="n">
-        <v>3400088.752387416</v>
-      </c>
-      <c r="I72" t="n">
-        <v>6211609.449475016</v>
-      </c>
-      <c r="J72" t="n">
-        <v>7088311.767663792</v>
-      </c>
-      <c r="K72" t="n">
-        <v>5566236.039649176</v>
-      </c>
-      <c r="L72" t="n">
-        <v>6515429.385476281</v>
-      </c>
-      <c r="M72" t="n">
-        <v>4664070.299869508</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>-2.045766052224897e+248</v>
-      </c>
-      <c r="C73" t="n">
-        <v>1.423628941837037e+253</v>
-      </c>
-      <c r="D73" t="n">
-        <v>-9.906897036598393e+257</v>
-      </c>
-      <c r="E73" t="n">
-        <v>6.894114471086444e+262</v>
-      </c>
-      <c r="F73" t="n">
-        <v>-4.797548027890163e+267</v>
-      </c>
-      <c r="G73" t="n">
-        <v>3.338567582021253e+272</v>
-      </c>
-      <c r="H73" t="n">
-        <v>-2.323277106331537e+277</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1.616746218309707e+282</v>
-      </c>
-      <c r="J73" t="n">
-        <v>-1.125078161057613e+287</v>
-      </c>
-      <c r="K73" t="n">
-        <v>7.829310835266173e+291</v>
-      </c>
-      <c r="L73" t="n">
-        <v>-5.448342193185399e+296</v>
-      </c>
-      <c r="M73" t="n">
-        <v>3.79144898939692e+301</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>20114159.8957506</v>
-      </c>
-      <c r="C74" t="n">
-        <v>17325070.36612978</v>
-      </c>
-      <c r="D74" t="n">
-        <v>20136181.19899508</v>
-      </c>
-      <c r="E74" t="n">
-        <v>20204102.96168665</v>
-      </c>
-      <c r="F74" t="n">
-        <v>22011562.85692462</v>
-      </c>
-      <c r="G74" t="n">
-        <v>27791935.41530645</v>
-      </c>
-      <c r="H74" t="n">
-        <v>16868343.20749535</v>
-      </c>
-      <c r="I74" t="n">
-        <v>22021522.97001779</v>
-      </c>
-      <c r="J74" t="n">
-        <v>25649019.51201991</v>
-      </c>
-      <c r="K74" t="n">
-        <v>23879594.77248301</v>
-      </c>
-      <c r="L74" t="n">
-        <v>21987433.8639567</v>
-      </c>
-      <c r="M74" t="n">
-        <v>23453963.49192566</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>24865258.94698989</v>
-      </c>
-      <c r="C75" t="n">
-        <v>25990866.19613127</v>
-      </c>
-      <c r="D75" t="n">
-        <v>25164016.30977698</v>
-      </c>
-      <c r="E75" t="n">
-        <v>25703729.42853262</v>
-      </c>
-      <c r="F75" t="n">
-        <v>26094802.08872489</v>
-      </c>
-      <c r="G75" t="n">
-        <v>34294312.46014927</v>
-      </c>
-      <c r="H75" t="n">
-        <v>26283640.28797715</v>
-      </c>
-      <c r="I75" t="n">
-        <v>29433072.88488605</v>
-      </c>
-      <c r="J75" t="n">
-        <v>30684240.57685707</v>
-      </c>
-      <c r="K75" t="n">
-        <v>32486396.39959784</v>
-      </c>
-      <c r="L75" t="n">
-        <v>31907094.08732075</v>
-      </c>
-      <c r="M75" t="n">
-        <v>34415369.59989487</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>-110721859.2905917</v>
-      </c>
-      <c r="C76" t="n">
-        <v>940404093.4821711</v>
-      </c>
-      <c r="D76" t="n">
-        <v>-7982002892.906618</v>
-      </c>
-      <c r="E76" t="n">
-        <v>67740819767.42738</v>
-      </c>
-      <c r="F76" t="n">
-        <v>-574905944213.1841</v>
-      </c>
-      <c r="G76" t="n">
-        <v>4879126129106.559</v>
-      </c>
-      <c r="H76" t="n">
-        <v>-41408325750170.35</v>
-      </c>
-      <c r="I76" t="n">
-        <v>351425498845974.6</v>
-      </c>
-      <c r="J76" t="n">
-        <v>-2982489125762734</v>
-      </c>
-      <c r="K76" t="n">
-        <v>2.531188379991715e+16</v>
-      </c>
-      <c r="L76" t="n">
-        <v>-2.148177023886602e+17</v>
-      </c>
-      <c r="M76" t="n">
-        <v>1.823121725155088e+18</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>-2853456419210.437</v>
-      </c>
-      <c r="C77" t="n">
-        <v>-320679447662042.5</v>
-      </c>
-      <c r="D77" t="n">
-        <v>2.824800026320334e+16</v>
-      </c>
-      <c r="E77" t="n">
-        <v>-2.424993855097027e+18</v>
-      </c>
-      <c r="F77" t="n">
-        <v>2.081245981778096e+20</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-1.786221315915264e+22</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1.533017513150442e+24</v>
-      </c>
-      <c r="I77" t="n">
-        <v>-1.315706331812553e+26</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1.129199853700891e+28</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-9.691313925969377e+29</v>
-      </c>
-      <c r="L77" t="n">
-        <v>8.317532569975558e+31</v>
-      </c>
-      <c r="M77" t="n">
-        <v>-7.138490052130298e+33</v>
+        <v>9.678042689115809e+245</v>
       </c>
     </row>
   </sheetData>
